--- a/Datos/Database by set/Set with text box/Xlsx sets/Dark Ascension Promos (PDKA).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Dark Ascension Promos (PDKA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,252 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gravecrawler</t>
+          <t>('Gravecrawler', ['{B}', 'Creature — Zombie', 'Gravecrawler can’t block.', 'You may cast Gravecrawler from your graveyard as long as you control a Zombie.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{B}</t>
+          <t>('Mondronen Shaman', ['{3}{R}', 'Creature — Human Shaman Werewolf', 'At the beginning of each upkeep, if no spells were cast last turn, transform Mondronen Shaman.', '3/2', "Tovolar's Magehunter", 'Creature — Werewolf', 'Whenever an opponent casts a spell, Tovolar’s Magehunter deals 2 damage to that player.', 'At the beginning of each upkeep, if a player cast two or more spells last turn, transform Tovolar’s Magehunter.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Zombie</t>
+          <t>('Ravenous Demon', ['{3}{B}{B}', 'Creature — Demon', 'Sacrifice a Human: Transform Ravenous Demon. Activate this ability only any time you could cast a sorcery.', '4/4', 'Archdemon of Greed', 'Creature — Demon', 'Flying, trample', 'At the beginning of your upkeep, sacrifice a Human. If you can’t, tap Archdemon of Greed and it deals 9 damage to you.', '9/9'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gravecrawler can’t block.</t>
+          <t>('Strangleroot Geist', ['{G}{G}', 'Creature — Spirit', 'Haste', 'Undying (When this creature dies, if it had no +1/+1 counters on it, return it to the battlefield under its owner’s control with a +1/+1 counter on it.)', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>You may cast Gravecrawler from your graveyard as long as you control a Zombie.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mondronen Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{3}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Human Shaman Werewolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>At the beginning of each upkeep, if no spells were cast last turn, transform Mondronen Shaman.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tovolar's Magehunter</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Werewolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Whenever an opponent casts a spell, Tovolar’s Magehunter deals 2 damage to that player.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>At the beginning of each upkeep, if a player cast two or more spells last turn, transform Tovolar’s Magehunter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ravenous Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sacrifice a Human: Transform Ravenous Demon. Activate this ability only any time you could cast a sorcery.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Archdemon of Greed</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Creature — Demon</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flying, trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, sacrifice a Human. If you can’t, tap Archdemon of Greed and it deals 9 damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>9/9</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Strangleroot Geist</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Undying (When this creature dies, if it had no +1/+1 counters on it, return it to the battlefield under its owner’s control with a +1/+1 counter on it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Zombie Apocalypse</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Return all Zombie creature cards from your graveyard to the battlefield tapped, then destroy all Humans.</t>
+          <t>('Zombie Apocalypse', ['{3}{B}{B}{B}', 'Sorcery', 'Return all Zombie creature cards from your graveyard to the battlefield tapped, then destroy all Humans.'])</t>
         </is>
       </c>
     </row>
